--- a/data/trans_bre/CONS_DIA-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIA-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-63,57%</t>
+          <t>-48,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-59,98%</t>
+          <t>-50,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-59,79%</t>
+          <t>-47,13%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; -1,19</t>
+          <t>-3,94; -0,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -2,48</t>
+          <t>-6,81; -1,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -1,2</t>
+          <t>-3,6; 0,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-83,61; -28,18</t>
+          <t>-71,57; -3,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,8; -36,49</t>
+          <t>-73,99; -17,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-78,44; -24,49</t>
+          <t>-78,14; 8,3</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-60,61%</t>
+          <t>-65,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-74,07%</t>
+          <t>-69,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-67,86%</t>
+          <t>-52,63%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,06; -0,64</t>
+          <t>-6,71; -1,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,92; -4,31</t>
+          <t>-9,7; -2,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,44; -1,84</t>
+          <t>-4,48; -0,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-84,15; -13,06</t>
+          <t>-82,3; -30,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,92; -54,72</t>
+          <t>-85,3; -42,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,48; -40,06</t>
+          <t>-82,61; 20,74</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-47,7%</t>
+          <t>-51,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>104,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-54,46%</t>
+          <t>-42,39%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 0,59</t>
+          <t>-8,57; -2,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 5,17</t>
+          <t>-2,0; 15,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; -2,6</t>
+          <t>-5,9; 1,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-77,58; 10,03</t>
+          <t>-71,03; -22,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 69,22</t>
+          <t>-20,07; 692,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,09; -27,7</t>
+          <t>-79,08; 24,22</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-51,03%</t>
+          <t>-47,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-55,87%</t>
+          <t>-71,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,13%</t>
+          <t>-53,33%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,86; -2,52</t>
+          <t>-7,11; -2,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,51; -4,09</t>
+          <t>-10,23; -4,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,45; -2,18</t>
+          <t>-7,85; -2,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-67,91; -22,88</t>
+          <t>-64,05; -25,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,29; -41,75</t>
+          <t>-89,36; -49,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,81; -25,96</t>
+          <t>-71,21; -29,73</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>50,65%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 7,63</t>
+          <t>-4,23; 2,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,51</t>
+          <t>-3,36; 5,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,67</t>
+          <t>-1,1; 6,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 150,7</t>
+          <t>-37,42; 42,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 61,14</t>
+          <t>-39,04; 129,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 38,1</t>
+          <t>-20,06; 181,14</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>384,72%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>736,36%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1213,83%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>786,98%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,6</t>
+          <t>3,18; 8,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,75; 11,47</t>
+          <t>6,34; 11,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,16</t>
+          <t>0,0; 10,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>60,95; 1949,86</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>180,61; 3592,28</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>310,05; 5371,86</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>235,12; 3763,86</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-43,36%</t>
+          <t>-34,31%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>-15,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-32,15%</t>
+          <t>-37,91%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,96; -2,05</t>
+          <t>-3,87; -1,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; -0,45</t>
+          <t>-2,83; 1,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -1,39</t>
+          <t>-3,37; -0,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-57,64; -28,41</t>
+          <t>-45,93; -21,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,05; -5,49</t>
+          <t>-36,21; 25,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-42,23; -20,62</t>
+          <t>-52,99; -17,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_DIA-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIA-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-48,51%</t>
+          <t>-55,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; -0,25</t>
+          <t>-3,97; -0,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -1,09</t>
+          <t>-6,34; -0,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-71,57; -3,79</t>
+          <t>-77,17; -22,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-73,99; -17,58</t>
+          <t>-71,8; -12,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-65,19%</t>
+          <t>-54,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,71; -1,46</t>
+          <t>-5,57; -0,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -2,89</t>
+          <t>-9,51; -3,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-82,3; -30,63</t>
+          <t>-77,13; -9,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,3; -42,87</t>
+          <t>-84,58; -42,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-51,77%</t>
+          <t>-46,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -2,39</t>
+          <t>-7,41; -0,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 15,1</t>
+          <t>-0,95; 13,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-71,03; -22,95</t>
+          <t>-67,46; -9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 692,58</t>
+          <t>-15,83; 849,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-47,07%</t>
+          <t>-50,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,11; -2,19</t>
+          <t>-6,85; -2,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -4,05</t>
+          <t>-10,61; -4,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,05; -25,17</t>
+          <t>-64,33; -26,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,36; -49,98</t>
+          <t>-89,3; -50,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>-21,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,78</t>
+          <t>-5,96; 1,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,64</t>
+          <t>-3,91; 5,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 42,34</t>
+          <t>-47,51; 21,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 129,56</t>
+          <t>-40,44; 120,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>384,72%</t>
+          <t>311,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,14</t>
+          <t>1,96; 6,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,27</t>
+          <t>5,9; 11,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>60,95; 1949,86</t>
+          <t>28,41; 1350,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>180,61; 3592,28</t>
+          <t>118,27; 3210,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-34,31%</t>
+          <t>-37,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -1,54</t>
+          <t>-3,74; -1,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,52</t>
+          <t>-3,17; 1,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-45,93; -21,76</t>
+          <t>-48,44; -24,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 25,73</t>
+          <t>-39,75; 24,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_DIA-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIA-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-3,42</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-2,21</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-49,49%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-47,13%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-55,54%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-50,63%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-47,13%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-6,23; -0,89</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 0,09</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-3,97; -0,72</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,34; -0,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 0,09</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-71,38; -10,74</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-78,14; 8,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-77,17; -22,94</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-71,8; -12,09</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-78,14; 8,3</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-5,9</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-3,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-6,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-70,26%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-52,63%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-54,1%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-69,85%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-52,63%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-9,35; -3,07</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; -0,1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-5,57; -0,63</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,51; -3,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; -0,1</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-84,68; -44,16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-82,61; 20,74</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-77,13; -9,53</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-84,58; -42,88</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-82,61; 20,74</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-2,63</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-4,65</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,31</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,63</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-42,39%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-46,58%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>104,12%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-42,39%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-4,62; 6,96</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 1,05</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-7,41; -0,94</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 13,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,9; 1,05</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-41,94; 93,61</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-79,08; 24,22</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-67,46; -9,16</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-15,83; 849,11</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-79,08; 24,22</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-5,78</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-4,8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-4,6</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-6,66</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,8</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-60,8%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-53,33%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-50,2%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-71,01%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-53,33%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-8,38; -3,19</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; -2,23</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-6,85; -2,16</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,61; -4,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,85; -2,23</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-73,95; -38,7</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-71,21; -29,73</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-64,33; -26,37</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-89,3; -50,84</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-71,21; -29,73</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-2,18</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>53,31%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>50,65%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-21,67%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>28,05%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>50,65%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-0,25; 6,71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 6,65</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-5,96; 1,39</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,91; 5,31</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 6,65</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-3,18; 163,49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-20,06; 181,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-47,51; 21,57</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-40,44; 120,98</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-20,06; 181,14</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,71</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4,61</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,93</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>732,95%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>311,95%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>736,36%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>5,93; 11,07</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,02</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,96; 6,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 11,3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,02</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>129,64; 3104,04</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>28,41; 1350,56</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>118,27; 3210,78</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-2,7</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-16,03%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-37,91%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-37,63%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-15,71%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-37,91%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-2,54; 0,24</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; -0,96</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-3,74; -1,63</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 1,47</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; -0,96</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-30,29; 3,52</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-52,99; -17,95</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-48,44; -24,49</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-39,75; 24,06</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-52,99; -17,95</t>
         </is>
       </c>
     </row>
